--- a/repository/hello.xlsx
+++ b/repository/hello.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +419,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
@@ -443,7 +452,18 @@
         <v>27448.01</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-05-17</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28084.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>